--- a/02_Enhanced Data/brand.xlsx
+++ b/02_Enhanced Data/brand.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\marwa\marwa\ITI\Grad. Project\generate data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\marwa\marwa\ITI\Grad. Project\02_Enhanced Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F7FBAE-8ED0-48DE-BEB6-16E961724D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2269C8F-9B14-49C0-ACED-141AB166DCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-2895" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="brand-table" sheetId="2" r:id="rId1"/>
